--- a/paper-annotation/4._annotations_jbg.xlsx
+++ b/paper-annotation/4._annotations_jbg.xlsx
@@ -1489,7 +1489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -1502,6 +1502,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1524,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1532,6 +1538,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2041,7 +2051,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4265,8 +4275,8 @@
       <c r="H76" t="s">
         <v>89</v>
       </c>
-      <c r="I76" t="s">
-        <v>119</v>
+      <c r="I76" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="77">
@@ -6330,7 +6340,7 @@
       <c r="G147" t="s">
         <v>175</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="4" t="s">
         <v>174</v>
       </c>
       <c r="I147" t="s">
@@ -20470,6 +20480,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H147"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/paper-annotation/4._annotations_jbg.xlsx
+++ b/paper-annotation/4._annotations_jbg.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -372,10 +375,10 @@
     <t xml:space="preserve">Combination of approaches</t>
   </si>
   <si>
+    <t xml:space="preserve">Sentiment towards a commercial product </t>
+  </si>
+  <si>
     <t xml:space="preserve"> tweets and Facebook comments on commercial products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentiment towards a commercial product </t>
   </si>
   <si>
     <t xml:space="preserve">Commercial product </t>
@@ -2041,7 +2044,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4256,17 +4260,17 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H76" t="s">
         <v>89</v>
       </c>
       <c r="I76" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77">
@@ -4286,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="G77" t="s">
         <v>121</v>
@@ -4295,7 +4299,7 @@
         <v>122</v>
       </c>
       <c r="I77" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
